--- a/11-Parameters/LhARABeamLine-Params-LsrDrvn-Solenoid.xlsx
+++ b/11-Parameters/LhARABeamLine-Params-LsrDrvn-Solenoid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D57C4FC-9F99-3946-A45C-5B344EF9FBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFD1584-3938-A943-BAB1-C9B8F1A748FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="640" windowWidth="21660" windowHeight="19000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6040" yWindow="640" windowWidth="21660" windowHeight="19000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LhARABeamLine-Params-LsrDrvn" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="99">
   <si>
     <t>Parameter</t>
   </si>
@@ -288,6 +288,63 @@
   </si>
   <si>
     <t>Maximum of energy distribution</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Laser power</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Laser energy</t>
+  </si>
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>Laser wavelength</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Laser pulse duration</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Target thickness</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>W/cm2</t>
+  </si>
+  <si>
+    <t>Laser intensity</t>
+  </si>
+  <si>
+    <t>DivAngle</t>
+  </si>
+  <si>
+    <t>Electron divergence angle</t>
   </si>
 </sst>
 </file>
@@ -345,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -405,11 +462,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,6 +522,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,130 +955,130 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="11">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="11">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="12">
         <v>25</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -988,7 +1092,7 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1003,51 +1107,53 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3">
-        <v>0.998</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="5">
+        <v>0.99969115500000005</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>19</v>
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2500000000000000</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1055,25 +1161,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F13" s="5">
-        <v>2E-3</v>
+        <v>70</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1081,73 +1187,77 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F14" s="5">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2.8700000000000002E-3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>22</v>
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2.8000000000000001E-14</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>41</v>
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1155,474 +1265,480 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="13">
+        <v>4E+20</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="3">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2.8700000000000002E-3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="5">
         <v>0.85699999999999998</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F25" s="5">
         <f>2.4916949087545</f>
         <v>2.4916949087544999</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="5">
         <v>0.15</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="G26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="5">
         <v>0.15</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="G27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5">
         <v>0.85699999999999998</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F29" s="5">
         <v>1.0187472612650501</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="3">
         <v>0.15</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="G30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="4">
         <f>(0.5-0.132433454701889)/2</f>
         <v>0.1837832726490555</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>1</v>
-      </c>
-      <c r="B25" s="5" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F32" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F33" s="5">
         <v>200</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>1</v>
-      </c>
-      <c r="B27" s="5" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F34" s="5">
         <v>0</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="C35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="5">
         <f>(0.5-0.132433454701889)/2</f>
         <v>0.1837832726490555</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="G35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>1</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>1</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>1</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1.4485646330252</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>1</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>1</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1.7709999999999999</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>1</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>1</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1640,13 +1756,13 @@
         <v>18</v>
       </c>
       <c r="F36" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.15</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1657,14 +1773,16 @@
         <v>50</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E37" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="5">
-        <v>6.4610000000000001E-2</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>14</v>
@@ -1679,17 +1797,19 @@
         <v>50</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E38" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F38" s="5">
-        <v>0.13539000000000001</v>
+        <v>1.4485646330252</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H38" s="5"/>
     </row>
@@ -1708,13 +1828,13 @@
         <v>18</v>
       </c>
       <c r="F39" s="5">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1732,12 +1852,14 @@
         <v>18</v>
       </c>
       <c r="F40" s="5">
-        <v>5.4600000000000003E-2</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
@@ -1754,308 +1876,306 @@
         <v>18</v>
       </c>
       <c r="F41" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>1</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="5">
+        <v>6.4610000000000001E-2</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>1</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.13539000000000001</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>1</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="5">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>1</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="5">
         <f>(0.5-0.132433454701889)/2</f>
         <v>0.1837832726490555</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="5" t="s">
+      <c r="G48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>1</v>
-      </c>
-      <c r="B42" s="5" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F49" s="5">
         <v>5</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>1</v>
-      </c>
-      <c r="B43" s="5" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F50" s="5">
         <v>200</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>1</v>
-      </c>
-      <c r="B44" s="5" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>1</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F51" s="5">
         <v>0</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>1</v>
-      </c>
-      <c r="B45" s="5" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>1</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="C52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5">
         <f>(0.5-0.132433454701889)/2</f>
         <v>0.1837832726490555</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="5" t="s">
+      <c r="G52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>1</v>
-      </c>
-      <c r="B46" s="4" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="C53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4">
         <v>0.15</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="4" t="s">
+      <c r="G53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>1</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>1</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1.7888589662779599</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>1</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>1</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>1</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>1</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="5">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
-        <v>1</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="5">
-        <v>1.60433994066042</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
@@ -2065,21 +2185,21 @@
         <v>54</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="5">
-        <v>0.15</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
@@ -2089,17 +2209,19 @@
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E55" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F55" s="5">
-        <v>2.5</v>
+        <v>1.7888589662779599</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H55" s="5"/>
     </row>
@@ -2124,7 +2246,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2135,16 +2257,14 @@
         <v>54</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="5">
-        <v>0.85699999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>14</v>
@@ -2159,21 +2279,21 @@
         <v>54</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F58" s="5">
-        <v>1.2448140165275099</v>
+        <v>0.15</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H58" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
@@ -2183,21 +2303,21 @@
         <v>54</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E59" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="5">
-        <v>0.15</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
@@ -2207,17 +2327,19 @@
         <v>54</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E60" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F60" s="5">
-        <v>0.3</v>
+        <v>1.60433994066042</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H60" s="5"/>
     </row>
@@ -2242,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2253,16 +2375,14 @@
         <v>54</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="5">
-        <v>0.85699999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>14</v>
@@ -2277,65 +2397,67 @@
         <v>54</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>1</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="5">
-        <v>1.1659674896013299</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>1</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E65" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F65" s="5">
-        <v>0.2</v>
+        <v>1.2448140165275099</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H65" s="5"/>
     </row>
@@ -2344,46 +2466,44 @@
         <v>1</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F66" s="5">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="5"/>
+      <c r="H66" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>1</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F67" s="5">
-        <v>45</v>
+        <v>0.3</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H67" s="5"/>
     </row>
@@ -2392,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>17</v>
@@ -2402,78 +2522,86 @@
         <v>18</v>
       </c>
       <c r="F68" s="5">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="5"/>
+      <c r="H68" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>1</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E69" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="5">
-        <v>0.1</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>1</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E70" s="5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F70" s="5">
-        <v>22.544</v>
+        <v>1.1659674896013299</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
-        <v>1</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="5"/>
+      <c r="A71" s="3">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
@@ -2483,21 +2611,21 @@
         <v>56</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F72" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>1</v>
       </c>
@@ -2505,17 +2633,19 @@
         <v>56</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E73" s="5" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F73" s="5">
-        <v>31.376799999999999</v>
+        <v>0.8</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H73" s="5"/>
     </row>
@@ -2527,17 +2657,19 @@
         <v>56</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E74" s="5" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F74" s="5">
-        <v>0.2</v>
+        <v>45</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H74" s="5"/>
     </row>
@@ -2549,21 +2681,21 @@
         <v>56</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>1</v>
       </c>
@@ -2575,17 +2707,17 @@
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F76" s="5">
-        <v>31.5123</v>
+        <v>0.1</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>1</v>
       </c>
@@ -2593,223 +2725,221 @@
         <v>56</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F77" s="5">
+        <v>22.544</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>1</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>1</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>1</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="5">
+        <v>31.376799999999999</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>1</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>1</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>1</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="5">
+        <v>31.5123</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>1</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="5">
         <f>0.2-0.005</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
-        <v>1</v>
-      </c>
-      <c r="B78" s="5" t="s">
+      <c r="G84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>1</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="5">
+      <c r="C85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="5">
         <v>0.01</v>
       </c>
-      <c r="G78" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
-        <v>1</v>
-      </c>
-      <c r="B79" s="5" t="s">
+      <c r="G85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>1</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="5">
+      <c r="C86" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="5">
         <f>0.2-0.005</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="G79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
-        <v>1</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
-        <v>1</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" s="5">
-        <f>F76</f>
-        <v>31.5123</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
-        <v>1</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
-        <v>1</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
-        <v>1</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F84" s="5">
-        <f>F73</f>
-        <v>31.376799999999999</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
-        <v>1</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="5"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
-        <v>1</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="5">
-        <v>0.1</v>
-      </c>
       <c r="G86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>1</v>
       </c>
@@ -2821,18 +2951,17 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F87" s="5">
-        <f>F70</f>
-        <v>22.544</v>
+        <v>0.1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>1</v>
       </c>
@@ -2840,17 +2969,18 @@
         <v>56</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F88" s="5">
-        <v>0.2</v>
+        <f>F83</f>
+        <v>31.5123</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H88" s="5"/>
     </row>
@@ -2862,16 +2992,14 @@
         <v>56</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F89" s="5">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>14</v>
@@ -2886,23 +3014,21 @@
         <v>56</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F90" s="5">
-        <v>45</v>
+        <v>0.1</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>1</v>
       </c>
@@ -2910,41 +3036,201 @@
         <v>56</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F91" s="5">
+        <f>F80</f>
+        <v>31.376799999999999</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>1</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>1</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>1</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="5">
+        <f>F77</f>
+        <v>22.544</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>1</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="5">
         <v>0.2</v>
       </c>
-      <c r="G91" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="5"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>1</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="G95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <v>1</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="3">
+      <c r="C96" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <v>1</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" s="5">
+        <v>45</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>1</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>1</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="3">
         <v>2</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="3"/>
+      <c r="G99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/11-Parameters/LhARABeamLine-Params-LsrDrvn-Solenoid.xlsx
+++ b/11-Parameters/LhARABeamLine-Params-LsrDrvn-Solenoid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/11-Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFD1584-3938-A943-BAB1-C9B8F1A748FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C1F242-DC8A-644B-B199-806F124A94B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6040" yWindow="640" windowWidth="21660" windowHeight="19000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,7 +843,7 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,7 +947,7 @@
         <v>66</v>
       </c>
       <c r="F4" s="9">
-        <v>0.5</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>14</v>
